--- a/01 Tiktok - Proyectos/Selenium_Project/Base_tiktok_medicossinfronteras.xlsx
+++ b/01 Tiktok - Proyectos/Selenium_Project/Base_tiktok_medicossinfronteras.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="264">
   <si>
     <t>level</t>
   </si>
@@ -43,13 +43,769 @@
     <t>Nathaly Gonzalez69</t>
   </si>
   <si>
+    <t>mariannycorderoo · Creador</t>
+  </si>
+  <si>
+    <t>Rusbel</t>
+  </si>
+  <si>
+    <t>shadya</t>
+  </si>
+  <si>
+    <t>Chanel_ff_</t>
+  </si>
+  <si>
+    <t>rxnzofy</t>
+  </si>
+  <si>
+    <t>Luis Eduardo Avila C</t>
+  </si>
+  <si>
+    <t>Pato 🌹</t>
+  </si>
+  <si>
+    <t>Seudónimodigital</t>
+  </si>
+  <si>
+    <t>VamVam</t>
+  </si>
+  <si>
+    <t>Samantha Lopez</t>
+  </si>
+  <si>
+    <t>Jhonatan Urbano</t>
+  </si>
+  <si>
+    <t>angelmontes9815</t>
+  </si>
+  <si>
+    <t>alejadiaz215</t>
+  </si>
+  <si>
+    <t>Jexu Avila</t>
+  </si>
+  <si>
+    <t>Edy Nieto💝</t>
+  </si>
+  <si>
+    <t>Brian Wilson3310</t>
+  </si>
+  <si>
+    <t>Nicoll Bolaño lobo</t>
+  </si>
+  <si>
+    <t>Candy Candy Sequeira</t>
+  </si>
+  <si>
+    <t>Jonathan Cedeño M993</t>
+  </si>
+  <si>
+    <t>brachoenrique8</t>
+  </si>
+  <si>
+    <t>Gia(Rides Ann)</t>
+  </si>
+  <si>
+    <t>Yulii Páez</t>
+  </si>
+  <si>
+    <t>André! ☺️</t>
+  </si>
+  <si>
+    <t>ale197</t>
+  </si>
+  <si>
+    <t>🇨🇴🅴🅳🆄🅰🆁🅳🇨🇴</t>
+  </si>
+  <si>
+    <t>Franella Cogua</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Murcia R</t>
+  </si>
+  <si>
+    <t>Tedee</t>
+  </si>
+  <si>
+    <t>Angel Cedeño Gonzále</t>
+  </si>
+  <si>
+    <t>Jasmin_MK</t>
+  </si>
+  <si>
+    <t>Nel psicologia 🧠</t>
+  </si>
+  <si>
+    <t>Dailys Pedrozo Chave</t>
+  </si>
+  <si>
+    <t>Orlando Naranjo Gonzalez</t>
+  </si>
+  <si>
+    <t>Nany</t>
+  </si>
+  <si>
+    <t>Felipe Flores</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>kevinsmith</t>
+  </si>
+  <si>
+    <t>Paola</t>
+  </si>
+  <si>
+    <t>IAP</t>
+  </si>
+  <si>
+    <t>Arnovis Ramos Lamber</t>
+  </si>
+  <si>
+    <t>Dianitta</t>
+  </si>
+  <si>
+    <t>Ares&amp;ThanosFrenchie</t>
+  </si>
+  <si>
+    <t>alejandropaez.odinson</t>
+  </si>
+  <si>
+    <t>Aleja</t>
+  </si>
+  <si>
+    <t>JENNIFER PEREZ</t>
+  </si>
+  <si>
+    <t>Alfredo suarez</t>
+  </si>
+  <si>
+    <t>Andrés Sierra</t>
+  </si>
+  <si>
+    <t>Rafael Emilio</t>
+  </si>
+  <si>
+    <t>zurielfigueroa5452</t>
+  </si>
+  <si>
+    <t>Frank Gil</t>
+  </si>
+  <si>
+    <t>Alejandro Nio Hernández</t>
+  </si>
+  <si>
+    <t>K E L L Y🧚</t>
+  </si>
+  <si>
+    <t>LaMonaLisaNiTanLisa</t>
+  </si>
+  <si>
+    <t>ivanp479</t>
+  </si>
+  <si>
+    <t>Jose Bencomo</t>
+  </si>
+  <si>
+    <t>Gatorado</t>
+  </si>
+  <si>
+    <t>Xiomara Ríos</t>
+  </si>
+  <si>
+    <t>Si'soy Unpanda</t>
+  </si>
+  <si>
+    <t>SHALOM ALEIJEM</t>
+  </si>
+  <si>
+    <t>Jose Santiago Gonzalez</t>
+  </si>
+  <si>
+    <t>mauricioizquierdo4</t>
+  </si>
+  <si>
+    <t>la maracucha</t>
+  </si>
+  <si>
+    <t>Fredy Rincón</t>
+  </si>
+  <si>
+    <t>Yosimismosiiii</t>
+  </si>
+  <si>
+    <t>NOTIFICACIÓN</t>
+  </si>
+  <si>
+    <t>pigui</t>
+  </si>
+  <si>
+    <t>Xork Santamonica</t>
+  </si>
+  <si>
+    <t>jorge daza</t>
+  </si>
+  <si>
+    <t>Tenwinchester</t>
+  </si>
+  <si>
+    <t>Soydekko</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>matthewcarmona236</t>
+  </si>
+  <si>
+    <t>Jeantro 🎤</t>
+  </si>
+  <si>
+    <t>Juan de Vargas</t>
+  </si>
+  <si>
+    <t>untaljimmy</t>
+  </si>
+  <si>
+    <t>Rossana</t>
+  </si>
+  <si>
+    <t>angelas184</t>
+  </si>
+  <si>
+    <t>dmorenoc.98</t>
+  </si>
+  <si>
+    <t>Lavina Joyería | Colombia</t>
+  </si>
+  <si>
+    <t>Vera🌺.</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Lei</t>
+  </si>
+  <si>
     <t>https://www.tiktok.com/@25nathy98</t>
   </si>
   <si>
+    <t>https://www.tiktok.com/@mariannycorderoo</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rusbel8544942863943</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@shadya183</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lizbethbz</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rxnzofy</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@leavilac</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lipa6215</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@seudonimodigital</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@xvamvamx</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sammylopz17</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jhonatanurbano6</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@angelmontes9815</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@alejadiaz215</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jexu_avila</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@edy.sks</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@brianr1310</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@25nikylobo</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@candycandysequeira</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jonathanjose2022</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@brachoenrique8</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@gia_annr</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@yulipaez1992</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@aerdnaejnom</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ale00381973</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@eduardpadilla3</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@flannelcogua</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jorgemurcia5</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@papanicolaous</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@osopoderoso1979</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jasmin_mk1111</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nelpsicologia</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dailyschavez</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@orlandonaranjogon</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@karitonany</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@pipoproductor</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bayron.sar</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kevinberrio36</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@paolahrd_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ivan_aparicio_padilla</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@arnovisramoslambertinez</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dianitadiani</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@aresthanosfrenchiev</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@alejandropaez.odinson</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@alejam40</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jenn.queen</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@alfredosuarrez</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@andressierrao</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@emilirp20</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@zurielfigueroa5452</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@frankvisquito</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@alejandrohernandez1306</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@kellyjhoanna94</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lamonalisanitanlisa</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ivanp479</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@josebencomo5</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@user2114170776335</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@xiomara2911</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sisoyunpanda</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@shalom_aleijem_</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@santiago19882012</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@mauricioizquierdo4</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lourdesmorillo69</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@frecho3</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@yomismosiiii</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sarielandtb</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@punkisalazar</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@derkiller777</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jorgelinaresj</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@apolowinchester</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@soydekko</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@andrewfortiz</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@matthewcarmona236</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jeantro</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@juandevargas60</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@untaljimmysalinas</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rrossanadas</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@angelas184</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dmorenoc.98</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lavinajoyeria</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@di_vera25</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sleeps8over</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@leidytacuma</t>
+  </si>
+  <si>
     <t>soy rola y estoy en las mismas... me piden una gema del infinito y a Tanos como fiador</t>
   </si>
   <si>
+    <t>JAJAJAJAJA ameeeee usaré esa frase para otro video 😂😂</t>
+  </si>
+  <si>
+    <t>😂😂😂 segunda parte</t>
+  </si>
+  <si>
+    <t>que sin niños 🚸 que sin perros 🤣 huy no</t>
+  </si>
+  <si>
+    <t>Contrato de trabajo que mayor mente no esté es la casa también si mantiene mucho en la casa mejor no</t>
+  </si>
+  <si>
+    <t>JAJAJAJAJJA Thanos como fiador que gonorrea</t>
+  </si>
+  <si>
+    <t>he visto casos de inquilinos viviendo sin pagar, hasta que un juez da la orden de desalojo pueden pasar varios meses. Por eso hay que cuidarse mucho</t>
+  </si>
+  <si>
+    <t>Vivi en un conjunto donde unos inquilinos el dueño les armo escándalo para q desalojaran, tuvo q llegar la policía. Les empezaron a sacar tooodo.</t>
+  </si>
+  <si>
+    <t>Que gema ? haber si te puedo ayudar 😅</t>
+  </si>
+  <si>
+    <t>la del alma, para que alquiles algo así tenes que sacrificar lo más querido</t>
+  </si>
+  <si>
+    <t>@Juanjose Benjumea ajajajajajajajjjja así nos piden amor😩</t>
+  </si>
+  <si>
+    <t>JAJAJSJSJSJSJSJSJAJAJAJAJSJSHJSAJAJAJAJJAJSJSJS @Jay Melendez</t>
+  </si>
+  <si>
+    <t>😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>😂😂😂</t>
+  </si>
+  <si>
+    <t>El mejor comentarios de todo 😂😂😂😂</t>
+  </si>
+  <si>
+    <t>JAJAJAJAJA 😂😂</t>
+  </si>
+  <si>
+    <t>😂😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>Tambien a mi, no les basta con que gane mas del doble</t>
+  </si>
+  <si>
+    <t>Jajajaja el mejor comentario</t>
+  </si>
+  <si>
+    <t>😂😂😂😂😂 el mejor comentario</t>
+  </si>
+  <si>
+    <t>total amiga😅</t>
+  </si>
+  <si>
+    <t>😂😂😂🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>😂😂😂 estoy en Pereira y me pasa igual,piden lAs esferas del dragón 🐉😂 está como buscar empleo 😂😂</t>
+  </si>
+  <si>
+    <t>jiiijeeeeee😂😂</t>
+  </si>
+  <si>
+    <t>jajaja pero al menos es más viable eso, a una foto con Messi 😅</t>
+  </si>
+  <si>
+    <t>Jajajajajjajajaj</t>
+  </si>
+  <si>
+    <t>jajajaajjaja... muy bueno</t>
+  </si>
+  <si>
+    <t>😅 esa frase está impresa en las paredes del hospital donde nacieron Thor y Loki 😂</t>
+  </si>
+  <si>
+    <t>jajajaja excelente frase</t>
+  </si>
+  <si>
+    <t>😂😂😂😂</t>
+  </si>
+  <si>
+    <t>😂😳</t>
+  </si>
+  <si>
+    <t>Villa cindy suba</t>
+  </si>
+  <si>
+    <t>😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>Necesito ayuda... solo me falta el Tesseracto... Tengo 2 gemas del tiempo cambio una</t>
+  </si>
+  <si>
+    <t>Ame 😂😂😂</t>
+  </si>
+  <si>
+    <t>😅😂😂</t>
+  </si>
+  <si>
+    <t>😂😂😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>😂😂😂🥰</t>
+  </si>
+  <si>
+    <t>😂</t>
+  </si>
+  <si>
+    <t>Averigua en Houm …. Allá es fácil</t>
+  </si>
+  <si>
+    <t>Tengo a Thanos me avisas para fiarte 😂 y si necesitas a Ares también</t>
+  </si>
+  <si>
+    <t>jajaja jajaja quedó buena 😂🤣😂</t>
+  </si>
+  <si>
+    <t>🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>Bien complicado buscar y tantos documentos</t>
+  </si>
+  <si>
+    <t>jajajaja estuvo buena</t>
+  </si>
+  <si>
+    <t>jajajajjajajajajajaj literal</t>
+  </si>
+  <si>
+    <t>jajajjaa 😂😂</t>
+  </si>
+  <si>
+    <t>jajajajajajaja</t>
+  </si>
+  <si>
+    <t>hahahahahaha no jodaaa a mi me pidieron una lágrima de Simón Bolívar</t>
+  </si>
+  <si>
+    <t>jajaja</t>
+  </si>
+  <si>
+    <t>😂😂jaja csm vale</t>
+  </si>
+  <si>
+    <t>Ja. Ja. Ja😒</t>
+  </si>
+  <si>
+    <t>Jajaja, uno demuestra ingreso y aún así piden fiador que gane lo que gana el presidente de la federacion de cafeteros</t>
+  </si>
+  <si>
+    <t>sin comentar el triple de canon como depósito y el codeudor obligatorio con finca raíz, no reportado y que gane el cualtuple</t>
+  </si>
+  <si>
+    <t>parce pero como llevo a una costeña mas dificil tiene que llevar a un bogotano</t>
+  </si>
+  <si>
+    <t>busca al kang ya Thanos está muerto</t>
+  </si>
+  <si>
+    <t>que gonorrea jajajajajajaja te rifaste con este comentario 😂😂 estas cosas solo se ven en Colombia</t>
+  </si>
+  <si>
+    <t>😂😂😂😂😂 verga chama el mejor comentario 🤣🤣🤣 y Thanos de fiador 🤣🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>jajajaja le piden las escrituras de uno de los mundos conquistados por tanos 😂😂😂😂😂..</t>
+  </si>
+  <si>
+    <t>hola te escribe Thanos José tocarruncho, somos infinito joyería, escríbeme y te ayudo con tu gema😂😂😂😂😂😂</t>
+  </si>
+  <si>
+    <t>Se mamo 😂😂😂</t>
+  </si>
+  <si>
+    <t>a nosotras hasta la firma de la mujer maravilla y ni hablar si eres madre soltera jaja porque piden a Superman 😂</t>
+  </si>
+  <si>
+    <t>nivel de comedia 1000%</t>
+  </si>
+  <si>
+    <t>y en venezuela piden mas y el dinero cono si fueras a comprar la vivienda y depositos y asta un año de deposito..😂😂😂😂</t>
+  </si>
+  <si>
+    <t>Todos los costeños sabemos que allá no nos arriendan tampoco. 😅</t>
+  </si>
+  <si>
+    <t>Hajaajajajajajaja</t>
+  </si>
+  <si>
+    <t>El letrero jajajajajajajaja</t>
+  </si>
+  <si>
+    <t>😂😂 a los costeños tampoco les quieren arrendar 😂</t>
+  </si>
+  <si>
+    <t>buscas en villa de los alpes</t>
+  </si>
+  <si>
+    <t>El problemaes, en el mejor de los casos, que se le arrienda a UNA SOLA persona, y a las 2 semanas trae a todo el árbol genealógico a vivir ahí!!!😂😂</t>
+  </si>
+  <si>
+    <t>yo soy costeño y me confundían con ser venezolano jaja hay Dios Bogotá cuanto te quiero</t>
+  </si>
+  <si>
+    <t>juro que cuando salió la costeña de una me imaginé el meme 😂</t>
+  </si>
+  <si>
+    <t>200 mil una habitación, sin servicios y bien al sur.😅</t>
+  </si>
+  <si>
+    <t>Quieres vivir en un lugar donde todos parecen estar felices? pues en Bogotá no lo encontrarás jaja</t>
+  </si>
+  <si>
+    <t>Linda! Usa APTUNO. Es una página que no pide codeudor ni finca raíz ni nada, y te avisan el mismo día si cumples con los requisitos (sin pagar nada).</t>
+  </si>
+  <si>
+    <t>jajajajaja me pasó lo mismo mi novia es de Barranquilla y yo Venezolana la burlaaaa amiga ajajajaja</t>
+  </si>
+  <si>
+    <t>Entre más golpeado sea el acento más es el nivel de dificultad :v</t>
+  </si>
+  <si>
+    <t>Como propietarios también nos tenemos que proteger por eso tanto papeleo. Han habido inquilinos que no pagan, no salen de la casa, no pagan servicios+</t>
+  </si>
+  <si>
     <t>5-17</t>
+  </si>
+  <si>
+    <t>5-18</t>
+  </si>
+  <si>
+    <t>5-22</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>5-21</t>
+  </si>
+  <si>
+    <t>5-19</t>
+  </si>
+  <si>
+    <t>5-20</t>
+  </si>
+  <si>
+    <t>5-30</t>
+  </si>
+  <si>
+    <t>5-23</t>
+  </si>
+  <si>
+    <t>7-27</t>
+  </si>
+  <si>
+    <t>5-24</t>
+  </si>
+  <si>
+    <t>8-1</t>
   </si>
 </sst>
 </file>
@@ -420,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="G2">
         <v>5090</v>
@@ -478,13 +1234,2679 @@
         <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3">
+        <v>743</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" t="s">
+        <v>256</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+      <c r="F39" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" t="s">
+        <v>253</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" t="s">
+        <v>253</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>253</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
+        <v>253</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" t="s">
+        <v>220</v>
+      </c>
+      <c r="F52" t="s">
+        <v>253</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" t="s">
+        <v>253</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" t="s">
+        <v>261</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" t="s">
+        <v>254</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" t="s">
+        <v>256</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" t="s">
+        <v>225</v>
+      </c>
+      <c r="F58" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" t="s">
+        <v>257</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" t="s">
+        <v>253</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" t="s">
+        <v>229</v>
+      </c>
+      <c r="F62" t="s">
+        <v>253</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" t="s">
+        <v>230</v>
+      </c>
+      <c r="F63" t="s">
+        <v>253</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" t="s">
+        <v>231</v>
+      </c>
+      <c r="F64" t="s">
+        <v>253</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" t="s">
+        <v>253</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" t="s">
+        <v>253</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" t="s">
+        <v>253</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" t="s">
+        <v>253</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" t="s">
+        <v>236</v>
+      </c>
+      <c r="F70" t="s">
+        <v>253</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" t="s">
+        <v>237</v>
+      </c>
+      <c r="F71" t="s">
+        <v>253</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" t="s">
+        <v>253</v>
+      </c>
+      <c r="G72">
+        <v>6375</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" t="s">
+        <v>257</v>
+      </c>
+      <c r="G73">
+        <v>441</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" t="s">
+        <v>252</v>
+      </c>
+      <c r="G74">
+        <v>4260</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75" t="s">
+        <v>252</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" t="s">
+        <v>253</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" t="s">
+        <v>253</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" t="s">
+        <v>252</v>
+      </c>
+      <c r="G78">
+        <v>226</v>
+      </c>
+      <c r="H78">
+        <v>25</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" t="s">
+        <v>244</v>
+      </c>
+      <c r="F79" t="s">
+        <v>252</v>
+      </c>
+      <c r="G79">
+        <v>226</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" t="s">
+        <v>245</v>
+      </c>
+      <c r="F80" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80">
+        <v>9982</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E81" t="s">
+        <v>246</v>
+      </c>
+      <c r="F81" t="s">
+        <v>263</v>
+      </c>
+      <c r="G81">
+        <v>6</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" t="s">
+        <v>247</v>
+      </c>
+      <c r="F82" t="s">
+        <v>253</v>
+      </c>
+      <c r="G82">
+        <v>452</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" t="s">
+        <v>247</v>
+      </c>
+      <c r="F83" t="s">
+        <v>253</v>
+      </c>
+      <c r="G83">
+        <v>452</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84">
+        <v>89</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" t="s">
+        <v>248</v>
+      </c>
+      <c r="F85" t="s">
+        <v>253</v>
+      </c>
+      <c r="G85">
+        <v>89</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" t="s">
+        <v>249</v>
+      </c>
+      <c r="F86" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86">
+        <v>680</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" t="s">
+        <v>257</v>
+      </c>
+      <c r="G87">
+        <v>334</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" t="s">
+        <v>251</v>
+      </c>
+      <c r="F88" t="s">
+        <v>253</v>
+      </c>
+      <c r="G88">
+        <v>1027</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="D10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="D11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="D13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="D14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="D15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="D16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="D17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="D18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="D19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="D20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="D21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="D22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="D23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="D24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="D25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="D26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="D27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
+    <hyperlink ref="D28" r:id="rId53"/>
+    <hyperlink ref="I28" r:id="rId54"/>
+    <hyperlink ref="D29" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="D30" r:id="rId57"/>
+    <hyperlink ref="I30" r:id="rId58"/>
+    <hyperlink ref="D31" r:id="rId59"/>
+    <hyperlink ref="I31" r:id="rId60"/>
+    <hyperlink ref="D32" r:id="rId61"/>
+    <hyperlink ref="I32" r:id="rId62"/>
+    <hyperlink ref="D33" r:id="rId63"/>
+    <hyperlink ref="I33" r:id="rId64"/>
+    <hyperlink ref="D34" r:id="rId65"/>
+    <hyperlink ref="I34" r:id="rId66"/>
+    <hyperlink ref="D35" r:id="rId67"/>
+    <hyperlink ref="I35" r:id="rId68"/>
+    <hyperlink ref="D36" r:id="rId69"/>
+    <hyperlink ref="I36" r:id="rId70"/>
+    <hyperlink ref="D37" r:id="rId71"/>
+    <hyperlink ref="I37" r:id="rId72"/>
+    <hyperlink ref="D38" r:id="rId73"/>
+    <hyperlink ref="I38" r:id="rId74"/>
+    <hyperlink ref="D39" r:id="rId75"/>
+    <hyperlink ref="I39" r:id="rId76"/>
+    <hyperlink ref="D40" r:id="rId77"/>
+    <hyperlink ref="I40" r:id="rId78"/>
+    <hyperlink ref="D41" r:id="rId79"/>
+    <hyperlink ref="I41" r:id="rId80"/>
+    <hyperlink ref="D42" r:id="rId81"/>
+    <hyperlink ref="I42" r:id="rId82"/>
+    <hyperlink ref="D43" r:id="rId83"/>
+    <hyperlink ref="I43" r:id="rId84"/>
+    <hyperlink ref="D44" r:id="rId85"/>
+    <hyperlink ref="I44" r:id="rId86"/>
+    <hyperlink ref="D45" r:id="rId87"/>
+    <hyperlink ref="I45" r:id="rId88"/>
+    <hyperlink ref="D46" r:id="rId89"/>
+    <hyperlink ref="I46" r:id="rId90"/>
+    <hyperlink ref="D47" r:id="rId91"/>
+    <hyperlink ref="I47" r:id="rId92"/>
+    <hyperlink ref="D48" r:id="rId93"/>
+    <hyperlink ref="I48" r:id="rId94"/>
+    <hyperlink ref="D49" r:id="rId95"/>
+    <hyperlink ref="I49" r:id="rId96"/>
+    <hyperlink ref="D50" r:id="rId97"/>
+    <hyperlink ref="I50" r:id="rId98"/>
+    <hyperlink ref="D51" r:id="rId99"/>
+    <hyperlink ref="I51" r:id="rId100"/>
+    <hyperlink ref="D52" r:id="rId101"/>
+    <hyperlink ref="I52" r:id="rId102"/>
+    <hyperlink ref="D53" r:id="rId103"/>
+    <hyperlink ref="I53" r:id="rId104"/>
+    <hyperlink ref="D54" r:id="rId105"/>
+    <hyperlink ref="I54" r:id="rId106"/>
+    <hyperlink ref="D55" r:id="rId107"/>
+    <hyperlink ref="I55" r:id="rId108"/>
+    <hyperlink ref="D56" r:id="rId109"/>
+    <hyperlink ref="I56" r:id="rId110"/>
+    <hyperlink ref="D57" r:id="rId111"/>
+    <hyperlink ref="I57" r:id="rId112"/>
+    <hyperlink ref="D58" r:id="rId113"/>
+    <hyperlink ref="I58" r:id="rId114"/>
+    <hyperlink ref="D59" r:id="rId115"/>
+    <hyperlink ref="I59" r:id="rId116"/>
+    <hyperlink ref="D60" r:id="rId117"/>
+    <hyperlink ref="I60" r:id="rId118"/>
+    <hyperlink ref="D61" r:id="rId119"/>
+    <hyperlink ref="I61" r:id="rId120"/>
+    <hyperlink ref="D62" r:id="rId121"/>
+    <hyperlink ref="I62" r:id="rId122"/>
+    <hyperlink ref="D63" r:id="rId123"/>
+    <hyperlink ref="I63" r:id="rId124"/>
+    <hyperlink ref="D64" r:id="rId125"/>
+    <hyperlink ref="I64" r:id="rId126"/>
+    <hyperlink ref="D65" r:id="rId127"/>
+    <hyperlink ref="I65" r:id="rId128"/>
+    <hyperlink ref="D66" r:id="rId129"/>
+    <hyperlink ref="I66" r:id="rId130"/>
+    <hyperlink ref="D67" r:id="rId131"/>
+    <hyperlink ref="I67" r:id="rId132"/>
+    <hyperlink ref="D68" r:id="rId133"/>
+    <hyperlink ref="I68" r:id="rId134"/>
+    <hyperlink ref="D69" r:id="rId135"/>
+    <hyperlink ref="I69" r:id="rId136"/>
+    <hyperlink ref="D70" r:id="rId137"/>
+    <hyperlink ref="I70" r:id="rId138"/>
+    <hyperlink ref="D71" r:id="rId139"/>
+    <hyperlink ref="I71" r:id="rId140"/>
+    <hyperlink ref="D72" r:id="rId141"/>
+    <hyperlink ref="I72" r:id="rId142"/>
+    <hyperlink ref="D73" r:id="rId143"/>
+    <hyperlink ref="I73" r:id="rId144"/>
+    <hyperlink ref="D74" r:id="rId145"/>
+    <hyperlink ref="I74" r:id="rId146"/>
+    <hyperlink ref="D75" r:id="rId147"/>
+    <hyperlink ref="I75" r:id="rId148"/>
+    <hyperlink ref="D76" r:id="rId149"/>
+    <hyperlink ref="I76" r:id="rId150"/>
+    <hyperlink ref="D77" r:id="rId151"/>
+    <hyperlink ref="I77" r:id="rId152"/>
+    <hyperlink ref="D78" r:id="rId153"/>
+    <hyperlink ref="I78" r:id="rId154"/>
+    <hyperlink ref="D79" r:id="rId155"/>
+    <hyperlink ref="I79" r:id="rId156"/>
+    <hyperlink ref="D80" r:id="rId157"/>
+    <hyperlink ref="I80" r:id="rId158"/>
+    <hyperlink ref="D81" r:id="rId159"/>
+    <hyperlink ref="I81" r:id="rId160"/>
+    <hyperlink ref="D82" r:id="rId161"/>
+    <hyperlink ref="I82" r:id="rId162"/>
+    <hyperlink ref="D83" r:id="rId163"/>
+    <hyperlink ref="I83" r:id="rId164"/>
+    <hyperlink ref="D84" r:id="rId165"/>
+    <hyperlink ref="I84" r:id="rId166"/>
+    <hyperlink ref="D85" r:id="rId167"/>
+    <hyperlink ref="I85" r:id="rId168"/>
+    <hyperlink ref="D86" r:id="rId169"/>
+    <hyperlink ref="I86" r:id="rId170"/>
+    <hyperlink ref="D87" r:id="rId171"/>
+    <hyperlink ref="I87" r:id="rId172"/>
+    <hyperlink ref="D88" r:id="rId173"/>
+    <hyperlink ref="I88" r:id="rId174"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
